--- a/BalanceSheet/IDXX_bal.xlsx
+++ b/BalanceSheet/IDXX_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>6206000.0</v>
+        <v>210000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>4163000.0</v>
+        <v>218000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-14820000.0</v>
+        <v>229000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-14434000.0</v>
+        <v>212000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-724000.0</v>
+        <v>195000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>204893000.0</v>
@@ -1806,19 +1806,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>469000.0</v>
+        <v>75000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>7241000.0</v>
+        <v>72000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-4974000.0</v>
+        <v>74000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-1755000.0</v>
+        <v>74000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>776000.0</v>
+        <v>72000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>75515000.0</v>
@@ -2922,19 +2922,19 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>-34719000.0</v>
+        <v>-20000000.0</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>-6021000.0</v>
+        <v>19000000.0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-195000.0</v>
+        <v>29000000.0</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>2853000.0</v>
+        <v>32000000.0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>3759000.0</v>
+        <v>25000000.0</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>33734000.0</v>
